--- a/Q3/trace.xlsx
+++ b/Q3/trace.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sem-5\COL334\Assignment\col334\Q2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sem-5\COL334\Assignment\col334\Q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hops" sheetId="1" r:id="rId1"/>
+    <sheet name="Latency" sheetId="2" r:id="rId2"/>
+    <sheet name="Correlation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,75 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
-  <si>
-    <r>
-      <t xml:space="preserve">ETHZ (Switzerland): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>129.132.19.216</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">University of Waterloo (Canada east): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>129.97.208.23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">University of Cape Town (South Africa): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>137.158.158.44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">IIT Delhi (India): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>103.27.9.20</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Google</t>
   </si>
@@ -116,13 +50,46 @@
   </si>
   <si>
     <t>South Africa(Africa)</t>
+  </si>
+  <si>
+    <t>LATENCY (in ms)</t>
+  </si>
+  <si>
+    <t>HOPS</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Hops</t>
+  </si>
+  <si>
+    <t>ETHZ (Switzerland)</t>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+  </si>
+  <si>
+    <t>University of Cape Town</t>
+  </si>
+  <si>
+    <t>IIT Delhi</t>
+  </si>
+  <si>
+    <t>University of Waterloo (Canada east)</t>
+  </si>
+  <si>
+    <t>University of Cape Town (South Africa)</t>
+  </si>
+  <si>
+    <t>IIT Delhi (India)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,18 +103,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -176,10 +131,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,161 +425,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
       <c r="E5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -623,177 +577,591 @@
         <v>29</v>
       </c>
       <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>29.405000000000001</v>
+      </c>
+      <c r="C3">
+        <v>119.842</v>
+      </c>
+      <c r="D3">
+        <v>172.364</v>
+      </c>
+      <c r="E3">
+        <v>162.56700000000001</v>
+      </c>
+      <c r="F3">
+        <v>272.08199999999999</v>
+      </c>
+      <c r="G3">
+        <v>126.745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>47.710999999999999</v>
+      </c>
+      <c r="C4">
+        <v>137.82</v>
+      </c>
+      <c r="D4">
+        <v>177.083</v>
+      </c>
+      <c r="E4">
+        <v>153.01900000000001</v>
+      </c>
+      <c r="F4">
+        <v>273.56299999999999</v>
+      </c>
+      <c r="G4">
+        <v>131.708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>30.001000000000001</v>
+      </c>
+      <c r="C5">
+        <v>90.001000000000005</v>
+      </c>
+      <c r="D5">
+        <v>150.00200000000001</v>
+      </c>
+      <c r="E5">
+        <v>150.00200000000001</v>
+      </c>
+      <c r="F5">
+        <v>260.00400000000002</v>
+      </c>
+      <c r="G5">
+        <v>100.002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>156.11000000000001</v>
+      </c>
+      <c r="C6">
+        <v>53.304000000000002</v>
+      </c>
+      <c r="D6">
+        <v>318.23200000000003</v>
+      </c>
+      <c r="E6">
+        <v>313.84899999999999</v>
+      </c>
+      <c r="F6">
+        <v>215.59800000000001</v>
+      </c>
+      <c r="G6">
+        <v>52.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>213.203</v>
+      </c>
+      <c r="C7">
+        <v>136.86099999999999</v>
+      </c>
+      <c r="D7">
+        <v>344.20299999999997</v>
+      </c>
+      <c r="E7">
+        <v>405.20699999999999</v>
+      </c>
+      <c r="F7">
+        <v>297.209</v>
+      </c>
+      <c r="G7">
+        <v>185.98699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>191.80699999999999</v>
+      </c>
+      <c r="C8">
+        <v>259.86500000000001</v>
+      </c>
+      <c r="D8">
+        <v>21.957000000000001</v>
+      </c>
+      <c r="E8">
+        <v>317.38499999999999</v>
+      </c>
+      <c r="F8">
+        <v>421.65499999999997</v>
+      </c>
+      <c r="G8">
+        <v>265.63600000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>29.405000000000001</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>119.842</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>172.364</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>162.56700000000001</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>272.08199999999999</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>126.745</v>
+      </c>
+      <c r="Q3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>47.710999999999999</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>137.82</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>177.083</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>153.01900000000001</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>273.56299999999999</v>
+      </c>
+      <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <v>131.708</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30.001000000000001</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>90.001000000000005</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>150.00200000000001</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>150.00200000000001</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>260.00400000000002</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>100.002</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>156.11000000000001</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>53.304000000000002</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>318.23200000000003</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>313.84899999999999</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>215.59800000000001</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>52.79</v>
+      </c>
+      <c r="Q6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>213.203</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>136.86099999999999</v>
+      </c>
       <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>344.20299999999997</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>405.20699999999999</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>297.209</v>
+      </c>
+      <c r="N7">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>185.98699999999999</v>
+      </c>
+      <c r="Q7">
         <v>15</v>
       </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>29.405000000000001</v>
-      </c>
-      <c r="C11">
-        <v>119.842</v>
-      </c>
-      <c r="D11">
-        <v>172.364</v>
-      </c>
-      <c r="E11">
-        <v>162.56700000000001</v>
-      </c>
-      <c r="F11">
-        <v>272.08199999999999</v>
-      </c>
-      <c r="G11">
-        <v>126.745</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>213.203</v>
-      </c>
-      <c r="C12">
-        <v>136.86099999999999</v>
-      </c>
-      <c r="D12">
-        <v>344.20299999999997</v>
-      </c>
-      <c r="E12">
-        <v>405.20699999999999</v>
-      </c>
-      <c r="F12">
-        <v>297.209</v>
-      </c>
-      <c r="G12">
-        <v>185.98699999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>191.80699999999999</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>259.86500000000001</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>21.957000000000001</v>
+      </c>
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="B13">
-        <v>156.11000000000001</v>
-      </c>
-      <c r="C13">
-        <v>53.304000000000002</v>
-      </c>
-      <c r="D13">
-        <v>318.23200000000003</v>
-      </c>
-      <c r="E13">
-        <v>313.84899999999999</v>
-      </c>
-      <c r="F13">
-        <v>215.59800000000001</v>
-      </c>
-      <c r="G13">
-        <v>52.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>47.710999999999999</v>
-      </c>
-      <c r="C14">
-        <v>137.82</v>
-      </c>
-      <c r="D14">
-        <v>177.083</v>
-      </c>
-      <c r="E14">
-        <v>153.01900000000001</v>
-      </c>
-      <c r="F14">
-        <v>273.56299999999999</v>
-      </c>
-      <c r="G14">
-        <v>131.708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>191.80699999999999</v>
-      </c>
-      <c r="C15">
-        <v>259.86500000000001</v>
-      </c>
-      <c r="D15">
-        <v>21.957000000000001</v>
-      </c>
-      <c r="E15">
+      <c r="J8">
         <v>317.38499999999999</v>
       </c>
-      <c r="F15">
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="M8">
         <v>421.65499999999997</v>
       </c>
-      <c r="G15">
+      <c r="N8">
+        <v>15</v>
+      </c>
+      <c r="P8">
         <v>265.63600000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>30.001000000000001</v>
-      </c>
-      <c r="C16">
-        <v>90.001000000000005</v>
-      </c>
-      <c r="D16">
-        <v>150.00200000000001</v>
-      </c>
-      <c r="E16">
-        <v>150.00200000000001</v>
-      </c>
-      <c r="F16">
-        <v>260.00400000000002</v>
-      </c>
-      <c r="G16">
-        <v>100.002</v>
+      <c r="Q8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>CORREL(A3:A8,B3:B8)</f>
+        <v>1.1791843686684487E-2</v>
+      </c>
+      <c r="D10">
+        <f>CORREL(D3:D8,E3:E8)</f>
+        <v>3.189147023123047E-2</v>
+      </c>
+      <c r="G10">
+        <f>CORREL(G3:G8,H3:H8)</f>
+        <v>0.76548574246470735</v>
+      </c>
+      <c r="J10">
+        <f>CORREL(J3:J8,K3:K8)</f>
+        <v>0.34609538556879677</v>
+      </c>
+      <c r="M10">
+        <f>CORREL(M3:M8,N3:N8)</f>
+        <v>-5.4892775036407465E-2</v>
+      </c>
+      <c r="P10">
+        <f>CORREL(P3:P8,Q3:Q8)</f>
+        <v>0.5226317077906476</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
